--- a/1/6/2/Indicadores trimestrales 2003 a 2021 - Trimestral.xlsx
+++ b/1/6/2/Indicadores trimestrales 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Serie</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1413,10 +1416,21 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>210955.6</v>
+        <v>209509.8</v>
       </c>
       <c r="C74">
-        <v>-28988.6</v>
+        <v>-26743.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>213282.7</v>
+      </c>
+      <c r="C75">
+        <v>-16700.7</v>
       </c>
     </row>
   </sheetData>

--- a/1/6/2/Indicadores trimestrales 2003 a 2021 - Trimestral.xlsx
+++ b/1/6/2/Indicadores trimestrales 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Serie</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1433,6 +1436,14 @@
         <v>-16700.7</v>
       </c>
     </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>233154.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
